--- a/data/CS1/case18_1/case18_1_2050.xlsx
+++ b/data/CS1/case18_1/case18_1_2050.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2373DF71-AC0C-45D4-82EA-EB2F2D2AECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049DB1A-DF56-430F-8B5C-823709094A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="21" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15016,8 +15016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,16 +15033,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -44677,7 +44677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CACB78C-E034-4D5F-9D9E-330237C5FD39}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>

--- a/data/CS1/case18_1/case18_1_2050.xlsx
+++ b/data/CS1/case18_1/case18_1_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1049DB1A-DF56-430F-8B5C-823709094A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF815987-E185-4155-9F72-843BA077901C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15030,11 +15030,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS1/case18_1/case18_1_2050.xlsx
+++ b/data/CS1/case18_1/case18_1_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF815987-E185-4155-9F72-843BA077901C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F06E5F-9965-4159-B397-EC2F102243AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15030,10 +15030,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS1/case18_1/case18_1_2050.xlsx
+++ b/data/CS1/case18_1/case18_1_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76002BCF-5843-4186-84AC-6AD5BAE177CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202411E-8F98-4F62-AC71-BAACD6CDBA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,16 +15033,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -15195,99 +15195,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>7.5909372852357701E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>5.527302756769293E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>4.6492522714963215E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>6.2027811074095794E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>5.1836960191461279E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>4.3910307374206099E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>3.5975135915377009E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>0.12447163229865855</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>0.13277473269141418</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>0.11164857235829058</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>0.12747711864761702</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>0.11966027815995053</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>0.11897346082280071</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>0.10732283603244885</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>6.3685848602069134E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>0.10273406876540288</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>0.12200569563903263</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>0.11496607627216007</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>7.956219952357807E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>8.0906579147424273E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>7.5357409533633013E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>4.7689146579266449E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>3.7288621716081799E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>3.8257664432849087E-2</v>
       </c>
     </row>
@@ -15296,99 +15296,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-0.31175899067210333</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-0.3055786828871726</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-0.31401051232729865</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-0.3349632604747208</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-0.33174656524499119</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-0.30446580439643156</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-0.1892698792792859</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-3.7110762759858966E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-3.9880221743092664E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-2.5392464026763359E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-2.2368160609267138E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-0.10186495389794271</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-0.14732561880652892</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-0.19484154187554634</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-0.18954747147995696</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-0.19859394714079059</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-0.15614192347210565</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>5.0313144338095826E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-7.0199617457130416E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-8.2865743534269856E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-0.15670615009617683</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-0.20409297478726837</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-0.21936342067366618</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-0.25116062440561837</v>
       </c>
     </row>
@@ -15397,99 +15397,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>-1.1091295061407425</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>-1.1498224283896603</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>-1.1709126993676924</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>-1.1552536565518436</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>-1.2034069409046755</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>-0.96548861968133826</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>-3.5951920232606668E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>0.51809080878250635</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>0.64736903868190521</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>0.45999199585307565</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>0.26892721101887473</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>0.53871002135321577</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>0.32969288642462702</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>0.10103694637307667</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-0.40772033206316599</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>-0.39989591317565837</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>-0.33600606632771274</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>-0.16452273718431987</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>-0.41313579472496398</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>-0.22616214879021518</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>-0.32318238143348288</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>-0.52026962644836394</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>-0.82195424270193562</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>-0.92785326247245448</v>
       </c>
     </row>
@@ -15498,99 +15498,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
         <v>-2.917642627589728</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
         <v>-2.917405711930781</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
         <v>-2.9766451306739112</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
         <v>-3.0324351277912771</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
         <v>-2.9862120307692956</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
         <v>-2.7574453144840154</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
         <v>-2.3450035439368109</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
         <v>-2.2058602154737965</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
         <v>-2.2036817002179867</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
         <v>-2.4905818515287863</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
         <v>-2.6827779540618608</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
         <v>-2.7292329514793003</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
         <v>-2.7324617115642447</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
         <v>-2.7827062979657535</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
         <v>-2.8931050574147443</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
         <v>-2.8068013930262334</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
         <v>-2.3055536029788231</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
         <v>-1.4161918621568552</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
         <v>-1.8085824243112441</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
         <v>-2.2377046053552871</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
         <v>-2.3380927943351613</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
         <v>-2.4985945185540381</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
         <v>-2.6676441878951134</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
         <v>-2.6274810310312162</v>
       </c>
     </row>
@@ -15599,99 +15599,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
         <v>-0.58935001820802513</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
         <v>-0.62528018287502363</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
         <v>-0.67160261486214268</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
         <v>-0.67399775550464169</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
         <v>-0.65272600415904358</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
         <v>-0.55019646745268469</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
         <v>-0.43201417829517452</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
         <v>-0.3393310896519664</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
         <v>-0.34341935908601545</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
         <v>-0.28766656619628406</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
         <v>-0.27351814570471189</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
         <v>-0.27868798041329323</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
         <v>-0.33211800155684257</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
         <v>-0.35739905105027314</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
         <v>-0.3512317394342494</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
         <v>-0.43111891576427558</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
         <v>-0.38572910648725306</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
         <v>-0.18579517253918629</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
         <v>-0.22899225818965543</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
         <v>-0.27913707349393924</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
         <v>-0.30744196807876961</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
         <v>-0.39518388038975177</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
         <v>-0.43271467947207748</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
         <v>-0.44362638580487973</v>
       </c>
     </row>
@@ -15700,99 +15700,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
         <v>4.7171954361201258E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
         <v>3.7265062546531294E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
         <v>2.8255177013115342E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
         <v>4.1268417073008441E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
         <v>3.3549221220875711E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
         <v>4.8822620980844479E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
         <v>6.3812759132172839E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
         <v>0.12809901695208564</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
         <v>0.14606681399131977</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
         <v>0.14899873197999031</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
         <v>0.14142403440350743</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
         <v>0.14933497723183561</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
         <v>0.14822535405400702</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
         <v>0.15248655785720347</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
         <v>0.1244777865492414</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
         <v>0.12079794246624573</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
         <v>0.10291027196799281</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
         <v>0.11371755397174922</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
         <v>9.7358442463190309E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
         <v>9.9584562267928625E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
         <v>8.5897676024124417E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
         <v>8.7734983354768967E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
         <v>5.5577873575474022E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
         <v>5.8217228364150782E-2</v>
       </c>
     </row>
@@ -15801,99 +15801,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
         <v>-0.71129359521165569</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
         <v>-0.69640990904474376</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
         <v>-0.73294939714709462</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
         <v>-0.731287806396823</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
         <v>-0.7983121421897551</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
         <v>-0.7147757135630961</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
         <v>-0.5952135779507941</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
         <v>-0.31854585900340088</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
         <v>-0.15164215006410864</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
         <v>-0.14219375882561813</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
         <v>-0.10807629558681221</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
         <v>-3.668742980536225E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
         <v>-0.14746590015717723</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
         <v>-0.15699267219571725</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
         <v>-0.28330725932382989</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
         <v>-0.40485683760350671</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
         <v>-0.36539736764581532</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
         <v>-0.40756794463482648</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
         <v>-0.46291306310743102</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
         <v>-0.44003670732393324</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
         <v>-0.49101970195946115</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
         <v>-0.60247169571252113</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
         <v>-0.67973815693471717</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
         <v>-0.66949460042894104</v>
       </c>
     </row>
@@ -15902,99 +15902,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
         <v>-0.41302672660499046</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
         <v>-0.42593462944927479</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
         <v>-0.41592890787041442</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
         <v>-0.41948452642530121</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
         <v>-0.41490437089083521</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
         <v>-0.3825259242635326</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
         <v>-0.30435425322084886</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
         <v>-0.2350056365674851</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
         <v>-0.21919859101662909</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
         <v>-0.25034091565602817</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
         <v>-0.23402862434268845</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
         <v>-0.21548736679650785</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
         <v>-0.23070526837451083</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
         <v>-0.24730381636541346</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
         <v>-0.29747243913618432</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
         <v>-0.33323245706104387</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
         <v>-0.332349683140098</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
         <v>-0.33101806743902551</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
         <v>-0.34545732904137488</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
         <v>-0.36433955185796574</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
         <v>-0.36331151901093039</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
         <v>-0.37022600386073873</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
         <v>-0.38638796703521794</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
         <v>-0.40174662600284505</v>
       </c>
     </row>
@@ -16003,99 +16003,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
         <v>-0.47970558345726216</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
         <v>-0.52997657630550843</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
         <v>-0.55257490646216589</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
         <v>-0.52487983889967416</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
         <v>-0.53756062671081606</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
         <v>-0.49073085473727196</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
         <v>-0.29916570376078944</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
         <v>-3.1675382332161328E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
         <v>1.7570661259218554E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
         <v>-9.85948232502761E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
         <v>-1.496569677546546E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
         <v>-7.2512903232573103E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
         <v>-6.4599936925823734E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
         <v>-0.11593068923083075</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
         <v>-0.22740726265849046</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
         <v>-0.25170090890950642</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
         <v>-0.197810382738832</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
         <v>-6.236638880110025E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
         <v>-0.16002862410552227</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
         <v>-0.18833291328237095</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
         <v>-0.24654876920114638</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
         <v>-0.33240237014857077</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
         <v>-0.41270819040816403</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
         <v>-0.43895484033331328</v>
       </c>
     </row>
@@ -16104,99 +16104,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
         <v>-0.24278888484429745</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
         <v>-0.25744029025527138</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
         <v>-0.25023903460459407</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
         <v>-0.24701514296330146</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
         <v>-0.25135490607842553</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
         <v>-0.23968416778657395</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
         <v>-0.17437829076066691</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
         <v>-0.14088538174362863</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
         <v>-9.3591997579125147E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
         <v>-5.2978242605176896E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
         <v>-6.7776356021478745E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
         <v>-5.2324175307176035E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
         <v>-6.239360629530126E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
         <v>-9.2064735780488807E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
         <v>-0.11280871797013131</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
         <v>-0.11870371840144381</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
         <v>-0.12085244415406761</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
         <v>-8.0750105368407557E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
         <v>-9.6859904326425342E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
         <v>-0.12375550346011073</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
         <v>-0.14121407677322007</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
         <v>-0.18700417447849629</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
         <v>-0.22915580953188289</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
         <v>-0.23323356102558776</v>
       </c>
     </row>
@@ -16205,99 +16205,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
         <v>-0.15200588560851008</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
         <v>-0.15191937978170686</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
         <v>-0.15471147147206077</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
         <v>-0.15767866702148062</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
         <v>-0.15259049832968674</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
         <v>-0.12314327915697579</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
         <v>-9.7249491535927046E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
         <v>-8.6039556479306042E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
         <v>-6.0384204401326726E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
         <v>-3.9054151950114496E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
         <v>-9.1735277491638165E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
         <v>-8.4810216668237112E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
         <v>-9.5586069989648484E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
         <v>-9.5390562963739475E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
         <v>-0.10613192938197262</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
         <v>-0.10410789571540384</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
         <v>-9.2296728174958695E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
         <v>-5.9302225624575516E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
         <v>-8.266477382912929E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
         <v>-9.90476849751417E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
         <v>-0.1053666360785693</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
         <v>-0.10469664312786515</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
         <v>-0.11420607740854291</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
         <v>-0.12480572044654351</v>
       </c>
     </row>
@@ -16306,99 +16306,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
         <v>-3.9388887742081768E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
         <v>6.476576528682737E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
         <v>0.1384107973715728</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
         <v>0.12331129145119087</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
         <v>9.4938040712995428E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
         <v>-9.4692408384828466E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
         <v>-3.1262238808517175E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
         <v>0.11063748272825652</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
         <v>0.24503575251652579</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
         <v>0.29484648373412969</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
         <v>0.13760468800303524</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
         <v>-3.575137569711327E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
         <v>0.45364565426720005</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
         <v>0.5092286399992898</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
         <v>0.47348818872102832</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
         <v>0.54908860819462346</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
         <v>0.29864033031688153</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
         <v>0.41666277485860187</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
         <v>0.45635281372396447</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
         <v>0.40681043461966826</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
         <v>0.45207643454996316</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
         <v>0.5688295214714244</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
         <v>0.53757943616736026</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
         <v>0.36573443449239784</v>
       </c>
     </row>
@@ -16407,99 +16407,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
         <v>3.9588377353381513E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
         <v>3.2658119528718964E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
         <v>4.5696945192102635E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
         <v>5.6688761621414362E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
         <v>5.919583906674155E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
         <v>7.2170081493834193E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
         <v>0.26127104990196809</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
         <v>0.34042115384998045</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
         <v>0.35377230547122807</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
         <v>0.33089978443333234</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
         <v>0.30617908431121144</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
         <v>0.35791554574797613</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
         <v>0.40454119201649302</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
         <v>0.35525071778870188</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
         <v>0.33899309315291798</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
         <v>0.34525865633982533</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
         <v>0.31425043979684947</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
         <v>0.31520072331429139</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
         <v>0.27255339881896834</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
         <v>0.20575441662410082</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
         <v>0.2326457935247967</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
         <v>0.201286668213884</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
         <v>8.8537163767318836E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
         <v>6.1386321760184381E-2</v>
       </c>
     </row>
@@ -16508,99 +16508,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
         <v>0.78282672170000456</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
         <v>0.79326987414879713</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
         <v>0.81919198391644421</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
         <v>0.80769592901893883</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
         <v>0.81732406986900963</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
         <v>0.78712883427537028</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
         <v>0.68376356913368952</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
         <v>0.54352842251626476</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
         <v>0.45312748322590446</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
         <v>0.3865367290883685</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
         <v>0.50793192005735754</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
         <v>0.49113515823973181</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
         <v>0.42793384507625748</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
         <v>0.37529152214805223</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
         <v>0.51059767909663378</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
         <v>0.60516340785830347</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
         <v>0.58027119406832506</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
         <v>0.60983630061540872</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
         <v>0.64943772029166269</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
         <v>0.70498227044060713</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
         <v>0.6808456213769597</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
         <v>0.73351656636774643</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
         <v>0.76663562663601803</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
         <v>0.75889281118995366</v>
       </c>
     </row>
@@ -16609,99 +16609,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
         <v>7.5909372852357701E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
         <v>5.5820285266382948E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
         <v>4.7915763206237603E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
         <v>6.0203463689563579E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
         <v>5.3407777166960116E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
         <v>4.2618827745552985E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
         <v>3.5975135915377009E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
         <v>0.12696106494463177</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
         <v>0.12756788042900577</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
         <v>0.1138815438054564</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
         <v>0.13137947942254405</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
         <v>0.11845158848156721</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
         <v>0.12018747572915581</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
         <v>0.10623876698161604</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
         <v>6.5615722802131848E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
         <v>0.1007196752601989</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
         <v>0.12321367282357752</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
         <v>0.11158472108768476</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
         <v>8.034994407331647E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
         <v>8.0906579147424273E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
         <v>7.4596223578747831E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
         <v>4.7216976811154908E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
         <v>3.7288621716081799E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
         <v>3.8648048763796523E-2</v>
       </c>
     </row>
@@ -17244,99 +17244,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>7.8233129164164569E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>5.3631254471622834E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>4.7441349709146138E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>6.2027811074095794E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>5.131335453296168E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>4.2188334536001938E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>3.4906567521850951E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>0.12322691597567199</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>0.13017130656021</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>0.11276505808187347</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>0.13007869249756837</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>0.12328634719510054</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>0.12018747572915581</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>0.10949097413411449</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>6.5615722802131848E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>0.1007196752601989</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>0.11838176408539799</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>0.11383895787733495</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>7.956219952357807E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>8.2541055493836876E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>7.6879781443403378E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>4.6272637274931819E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>3.841857994990245E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>3.8257664432849087E-2</v>
       </c>
     </row>
@@ -17345,99 +17345,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-0.29953314790064833</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-0.30252289605830091</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-0.30773030208075269</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-0.32839535340658899</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-0.32849414793866777</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-0.29252596892990484</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-0.18548448169370019</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-3.6746931752409381E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-3.9489239176983916E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-2.6169784354113261E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-2.3281146756584159E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-0.10288360343692214</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-0.15030189393393356</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-0.19098329352157511</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-0.187632850555917</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-0.19275294869547321</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-0.15614192347210565</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>5.1319407224857748E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-7.1617791547173458E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-8.5376826671671985E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-0.15825769613673302</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-0.20205204503939567</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-0.21936342067366618</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-0.25884921494864754</v>
       </c>
     </row>
@@ -17446,99 +17446,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>-1.0873818687654337</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>-1.1850210741566907</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>-1.1709126993676924</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>-1.1788302617875956</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>-1.2034069409046755</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>-0.99504439375321585</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>-3.5951920232606668E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>0.513011487127776</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>0.66031641945554309</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>0.45097254495399569</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>0.27158985667252694</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>0.53342855055563521</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>0.33968357995264603</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>0.1030576853005382</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-0.39173129943323792</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>-0.39189799491214522</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>-0.33600606632771274</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>-0.16950827467475382</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>-0.39693439101025946</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>-0.22616214879021518</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>-0.32001392671354667</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>-0.52026962644836394</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>-0.82195424270193562</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>-0.91848100729596494</v>
       </c>
     </row>
@@ -17547,99 +17547,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
         <v>-2.917642627589728</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
         <v>-2.9757538261693961</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
         <v>-2.9766451306739112</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
         <v>-2.9135161031720109</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
         <v>-2.9862120307692956</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
         <v>-2.7574453144840154</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
         <v>-2.392377352905231</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
         <v>-2.1193558932983536</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
         <v>-2.1814222891046735</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
         <v>-2.4905818515287863</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
         <v>-2.6038727201188645</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
         <v>-2.7849315831421433</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
         <v>-2.7882262362900456</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
         <v>-2.7827062979657535</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
         <v>-2.8644604528858855</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
         <v>-2.8068013930262334</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
         <v>-2.3055536029788231</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
         <v>-1.4302135637623683</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
         <v>-1.8266682485543564</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
         <v>-2.1499514835766482</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
         <v>-2.3144756954024825</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
         <v>-2.473608573368498</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
         <v>-2.6412318692030823</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
         <v>-2.6540212434658752</v>
       </c>
     </row>
@@ -17648,99 +17648,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
         <v>-0.59536379390402527</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
         <v>-0.6189642214318416</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
         <v>-0.64526525741656837</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
         <v>-0.67399775550464169</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
         <v>-0.65931919612024603</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
         <v>-0.56131154760324409</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
         <v>-0.43201417829517452</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
         <v>-0.34275867641612767</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
         <v>-0.33668564616276025</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
         <v>-0.2792057848375698</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
         <v>-0.27630914719149469</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
         <v>-0.27868798041329323</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
         <v>-0.33211800155684257</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
         <v>-0.35386044658442889</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
         <v>-0.3512317394342494</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
         <v>-0.41831340341484163</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
         <v>-0.37060247486030196</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
         <v>-0.19148277986181444</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
         <v>-0.22001216963319836</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
         <v>-0.27634570275899983</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
         <v>-0.30442783113682087</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
         <v>-0.399096592076779</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
         <v>-0.43271467947207748</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
         <v>-0.46173358522548708</v>
       </c>
     </row>
@@ -17749,99 +17749,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
         <v>4.7171954361201258E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
         <v>3.6899718796075107E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
         <v>2.714713085573827E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
         <v>4.0443048731548269E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
         <v>3.4565864288174972E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
         <v>4.7846168561227594E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
         <v>6.5115060338951869E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
         <v>0.12936732405062112</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
         <v>0.14606681399131977</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
         <v>0.14749369428322273</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
         <v>0.14428108560357833</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
         <v>0.14933497723183561</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
         <v>0.14822535405400702</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
         <v>0.15099159160370151</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
         <v>0.12824984068709722</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
         <v>0.11720988476922854</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
         <v>0.10187077427134643</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
         <v>0.11599190505118422</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
         <v>9.6394497488307251E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
         <v>0.10260227627604768</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
         <v>8.6748148063967245E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
         <v>8.7734983354768967E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
         <v>5.4466316103964546E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
         <v>5.5934199800850751E-2</v>
       </c>
     </row>
@@ -17850,99 +17850,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
         <v>-0.71847837900167244</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
         <v>-0.70351613260642487</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
         <v>-0.73294939714709462</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
         <v>-0.73874992687025998</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
         <v>-0.7983121421897551</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
         <v>-0.7147757135630961</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
         <v>-0.60122583631393345</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
         <v>-0.30917686315035969</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
         <v>-0.15318951894231381</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
         <v>-0.14219375882561813</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
         <v>-0.11025965509361652</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
         <v>-3.7054304103415876E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
         <v>-0.14597634561013506</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
         <v>-0.15543828930269035</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
         <v>-0.2804741867305916</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
         <v>-0.40890540597954184</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
         <v>-0.36539736764581532</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
         <v>-0.41164362408117477</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
         <v>-0.46291306310743102</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
         <v>-0.4312359731774546</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
         <v>-0.49603010708149653</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
         <v>-0.60247169571252113</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
         <v>-0.67307405735692583</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
         <v>-0.65623728160856598</v>
       </c>
     </row>
@@ -17951,99 +17951,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
         <v>-0.41302672660499046</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
         <v>-0.40923131064734242</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
         <v>-0.40761032971300615</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
         <v>-0.41533121428247649</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
         <v>-0.40270130115875186</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
         <v>-0.3825259242635326</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
         <v>-0.30435425322084886</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
         <v>-0.23737943087624758</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
         <v>-0.2170066051064628</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
         <v>-0.24533409734290762</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
         <v>-0.23875647533951042</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
         <v>-0.21764224046447295</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
         <v>-0.22613684721857993</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
         <v>-0.2423577400381052</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
         <v>-0.29446766702369759</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
         <v>-0.33323245706104387</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
         <v>-0.332349683140098</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
         <v>-0.32446325422241112</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
         <v>-0.34545732904137488</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
         <v>-0.35362368268567262</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
         <v>-0.36694463420103973</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
         <v>-0.37022600386073873</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
         <v>-0.39029087579314947</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
         <v>-0.39379124727011544</v>
       </c>
     </row>
@@ -18052,99 +18052,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
         <v>-0.49928540319021164</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
         <v>-0.53522386914021636</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
         <v>-0.55804594514000927</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
         <v>-0.54094758907007234</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
         <v>-0.54304593922827338</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
         <v>-0.47629759430382279</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
         <v>-0.29036671247370738</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
         <v>-3.2968255080412803E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
         <v>1.7922074484402927E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
         <v>-1.0158254516695111E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
         <v>-1.481752155986679E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
         <v>-7.3252830816578967E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
         <v>-6.3307938187307261E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
         <v>-0.11711365544747186</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
         <v>-0.22740726265849046</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
         <v>-0.24183028503070225</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
         <v>-0.20176659039360864</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
         <v>-6.236638880110025E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
         <v>-0.16492745953732396</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
         <v>-0.18643056062295307</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
         <v>-0.25661198427058091</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
         <v>-0.33905041755154219</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
         <v>-0.42521449920841137</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
         <v>-0.44773393713997955</v>
       </c>
     </row>
@@ -18153,99 +18153,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
         <v>-0.24524129782252269</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
         <v>-0.24986851701246929</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
         <v>-0.25276670162080206</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
         <v>-0.25205626832989947</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
         <v>-0.25135490607842553</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
         <v>-0.23733432300435262</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
         <v>-0.17613968763703727</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
         <v>-0.14376059361594756</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
         <v>-9.081203725499272E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
         <v>-5.4583643896242866E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
         <v>-6.8460965678261376E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
         <v>-5.1795648283871232E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
         <v>-6.3023844742728555E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
         <v>-9.1153203743058214E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
         <v>-0.11622716396922621</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
         <v>-0.11987900274205217</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
         <v>-0.12085244415406761</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
         <v>-8.0750105368407557E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
         <v>-0.1008133698091366</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
         <v>-0.12253020144565419</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
         <v>-0.14553695667444108</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
         <v>-0.18150405169971698</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
         <v>-0.22686425143656405</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
         <v>-0.23556589663584365</v>
       </c>
     </row>
@@ -18254,99 +18254,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
         <v>-0.15507671158039918</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
         <v>-0.15656997304033055</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
         <v>-0.15629015995646955</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
         <v>-0.16086409463807619</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
         <v>-0.15414754423101007</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
         <v>-0.12691297137606691</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
         <v>-9.3435785985498523E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
         <v>-8.6891433276130858E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
         <v>-6.0384204401326726E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
         <v>-3.9448638333448992E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
         <v>-8.8137815629220989E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
         <v>-8.3962114501554747E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
         <v>-9.3674348589855516E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
         <v>-9.5390562963739475E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
         <v>-0.10613192938197262</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
         <v>-0.10623254664837126</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
         <v>-9.2296728174958695E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
         <v>-6.1722724629660226E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
         <v>-8.3491421567420579E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
         <v>-9.5163462034940069E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
         <v>-0.10223693401682961</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
         <v>-0.10896997550043107</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
         <v>-0.11305248066704247</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
         <v>-0.12235854945739559</v>
       </c>
     </row>
@@ -18355,99 +18355,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
         <v>-4.0176665496923405E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
         <v>6.6748390754791484E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
         <v>0.14260506395859013</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
         <v>0.12089342299136359</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
         <v>9.5878021314114187E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
         <v>-9.2798560217131884E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
         <v>-3.188748358468752E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
         <v>0.11515329834981802</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
         <v>0.24503575251652579</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
         <v>0.28328387652886972</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
         <v>0.14181707641129143</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
         <v>-3.575137569711327E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
         <v>0.45364565426720005</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
         <v>0.49410303683099399</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
         <v>0.48783631565196861</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
         <v>0.55457949427656961</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
         <v>0.29864033031688153</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
         <v>0.42082940260718782</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
         <v>0.43845662495047566</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
         <v>0.39085708424242638</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
         <v>0.45655243885243801</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
         <v>0.58606677969783105</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
         <v>0.54290200484228457</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
         <v>0.36214880278168798</v>
       </c>
     </row>
@@ -18456,99 +18456,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
         <v>3.9984261126915319E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
         <v>3.1377408958965278E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
         <v>4.6153914644023658E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
         <v>5.6688761621414362E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
         <v>6.0391714603443412E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
         <v>7.2899072215994121E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
         <v>0.26926914326631401</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
         <v>0.33040876697203986</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
         <v>0.35734576310225058</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
         <v>0.33089978443333234</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
         <v>0.30617908431121144</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
         <v>0.34387964199315357</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
         <v>0.40454119201649302</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
         <v>0.35876805162819397</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
         <v>0.34245220634835588</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
         <v>0.33835348321302888</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
         <v>0.30491626831773511</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
         <v>0.31520072331429139</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
         <v>0.28089687021138571</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
         <v>0.20785395148761204</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
         <v>0.22803894612826606</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
         <v>0.19927380153174515</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
         <v>8.8537163767318836E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
         <v>6.3891885913661281E-2</v>
       </c>
     </row>
@@ -18557,99 +18557,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
         <v>0.7984832561340045</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
         <v>0.80929552817200501</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
         <v>0.79485954875060916</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
         <v>0.82401301849406894</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
         <v>0.80931108879186242</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
         <v>0.77933547948056459</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
         <v>0.70448367728925587</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
         <v>0.53803823643024196</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
         <v>0.43535777800135922</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
         <v>0.3865367290883685</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
         <v>0.50290289114589848</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
         <v>0.49113515823973181</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
         <v>0.43666718885332401</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
         <v>0.36414424921296157</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
         <v>0.50058595989866039</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
         <v>0.60516340785830347</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
         <v>0.58607390600900833</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
         <v>0.60983630061540872</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
         <v>0.63033661087131976</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
         <v>0.68424749778058924</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
         <v>0.70168783427625436</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
         <v>0.74100142928986634</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
         <v>0.79010406418610013</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
         <v>0.77438041958158532</v>
       </c>
     </row>
@@ -18658,99 +18658,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
         <v>7.6683958289626653E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
         <v>5.4725769869002898E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
         <v>4.6492522714963215E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
         <v>6.081157948440765E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
         <v>5.3407777166960116E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
         <v>4.3049320955104019E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
         <v>3.4906567521850951E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
         <v>0.12198219965268542</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
         <v>0.13017130656021</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
         <v>0.1138815438054564</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
         <v>0.13268026634751973</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
         <v>0.11966027815995053</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
         <v>0.12018747572915581</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
         <v>0.10623876698161604</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
         <v>6.4329140002090043E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
         <v>0.10172687201280088</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
         <v>0.12321367282357752</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
         <v>0.11383895787733495</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
         <v>7.8774454973839669E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
         <v>8.1723817320630568E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
         <v>7.6118595488518195E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
         <v>4.674480704304336E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
         <v>3.7665274460688687E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
         <v>3.9428817425691411E-2</v>
       </c>
     </row>
@@ -37005,99 +37005,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>5.9106341025404088E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>6.5945091226690525E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>6.0902869848122987E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>6.338870127049534E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>6.1396779584882565E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>6.5603153716626186E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>6.5554305500902729E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>0.12277999022095305</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>0.14726108766770099</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>0.13755657547730404</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>0.13704638300197</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>0.13541810914452088</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>0.14698428111193459</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>0.13976017276438529</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>9.7967810423190416E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>0.12937178555385967</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>0.13101634214988331</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>0.12279355916976513</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>9.730293193139869E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>8.6510190046273264E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>9.356061584902807E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>9.0157523486959351E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>6.2867653636111617E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>6.2959922488033754E-2</v>
       </c>
     </row>
@@ -37106,99 +37106,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>6.1776408619424869E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-3.7814650124617655E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-4.0560268285480976E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-6.046599995174011E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-7.2478079405517148E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-5.6160371472204436E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-7.1760474658927875E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>0.17734197302667223</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>0.23088152716350704</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>0.29936598015322302</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>0.16848111441661329</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>0.1544098213421887</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>0.10714150868641668</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>0.14065053033149863</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>6.177640861942487E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>5.304035083485973E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>6.3648421001831684E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>0.11344395037385295</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>0.21312860973701583</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>0.21403341572184573</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>0.1729739441343896</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>0.13147766965770527</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>6.2400412746893799E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>1.2355281723884974E-2</v>
       </c>
     </row>
@@ -37207,99 +37207,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-0.1786236775044934</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-0.42305607830011593</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-0.72352727988146182</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-0.66822583173765593</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-0.68887170571134348</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-0.65628993584661777</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-3.686763209587067E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>0.76325215346476261</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>1.0435383264736193</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>1.0219707616975351</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>0.87901651824579663</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>1.0568106740281327</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>0.96722232803516717</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>0.86108963213917944</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>0.62518287126572691</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>0.39015171665455151</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>0.46992405560199152</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>0.4197379914114876</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>7.9127155385762413E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>0.33420508494906764</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>0.46969363290139232</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>0.31337487281490073</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-0.29323592878253135</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-0.60043547322137381</v>
       </c>
     </row>
@@ -37308,99 +37308,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
         <v>-2.684732280168189</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
         <v>-2.7376524837676577</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
         <v>-2.7322313897403956</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
         <v>-2.7879912140208116</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
         <v>-2.8240027672019132</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
         <v>-2.9006725255874857</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
         <v>-2.6057391957709326</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
         <v>-1.7582414961755322</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
         <v>-1.3557898014849354</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
         <v>-1.4198103404735614</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
         <v>-1.7941239756893186</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
         <v>-1.9685025002329355</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
         <v>-1.7889610289966873</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
         <v>-1.9815389406318287</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
         <v>-1.8272959081894733</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
         <v>-2.1813449776366531</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
         <v>-2.5014476725797836</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
         <v>-2.2249718771893865</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
         <v>-1.5206168746471842</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
         <v>-1.3810882402788283</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
         <v>-1.3948991226816163</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
         <v>-1.838138096243999</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
         <v>-2.2587891780261202</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
         <v>-2.3256493376956935</v>
       </c>
     </row>
@@ -37409,99 +37409,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
         <v>-0.37353495854805241</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
         <v>-0.49459480319959948</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
         <v>-0.58261591224359599</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
         <v>-0.56708277535347895</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
         <v>-0.5784244308605484</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
         <v>-0.61429858034486629</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
         <v>-0.57004146809445355</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
         <v>-0.21968293601736943</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
         <v>7.2487972153879476E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
         <v>0.24409215113041058</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
         <v>0.41495665692169781</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
         <v>0.42716126447821828</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
         <v>0.37805518356898593</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
         <v>0.30918339143185325</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
         <v>0.20751942141558466</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
         <v>0.13412740425751848</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
         <v>0.10873195823081923</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
         <v>0.10375971070779233</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
         <v>0.10170506297100436</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
         <v>2.4655772841455603E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
         <v>0.213436806897534</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
         <v>0.10478703457618631</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
         <v>5.8680739362664353E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
         <v>-9.2212590427043981E-2</v>
       </c>
     </row>
@@ -37510,99 +37510,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
         <v>6.4049780456619701E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
         <v>7.1055225194062488E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
         <v>5.4587881070982704E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
         <v>6.2907478500875066E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
         <v>6.6364710968703972E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
         <v>6.6127152597376546E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
         <v>6.6506235104813932E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
         <v>0.12321697821744594</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
         <v>0.13987639081096068</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
         <v>0.14100352946640785</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
         <v>0.12200896862707883</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
         <v>0.14141799300787272</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
         <v>0.14736200672449082</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
         <v>0.13710656128995158</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
         <v>0.12054823736508681</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
         <v>0.10508167106164169</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
         <v>0.1268056259545198</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
         <v>0.12409644963470068</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
         <v>0.10027490486733573</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
         <v>9.3057173925728001E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
         <v>0.10848077754499688</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
         <v>8.3815142394404685E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
         <v>6.5732906789641679E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
         <v>7.2745933177233185E-2</v>
       </c>
     </row>
@@ -37611,99 +37611,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
         <v>-0.6578147330218872</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
         <v>-0.64982140293269552</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
         <v>-0.7180372085802289</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
         <v>-0.70768221278286725</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
         <v>-0.66317389751350442</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
         <v>-0.73852011693378283</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
         <v>-0.6204822481735035</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
         <v>-0.28612488387447449</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
         <v>-5.0457896188022419E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
         <v>-4.0874983410639214E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
         <v>8.456579901178915E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
         <v>2.7794988719234675E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
         <v>9.0833296468087171E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
         <v>-7.1939970802725017E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
         <v>-0.12843828120587525</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
         <v>-0.18620825775957869</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
         <v>-0.24279740145919704</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
         <v>-0.21559282916700487</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
         <v>-0.25369739703536748</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
         <v>-0.18166659293617432</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
         <v>-0.34403111037288014</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
         <v>-0.42282899505894578</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
         <v>-0.47251480822698949</v>
       </c>
     </row>
@@ -37712,99 +37712,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
         <v>-0.39560713513936124</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
         <v>-0.41044021245259993</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
         <v>-0.40631579477168123</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
         <v>-0.40831735041095063</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
         <v>-0.40705037243053777</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
         <v>-0.39761543002320732</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
         <v>-0.34438887635671089</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
         <v>-0.27900472547391164</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
         <v>-0.27566879940846262</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
         <v>-0.26889585860891474</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
         <v>-0.26946195515335458</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
         <v>-0.26215661403225027</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
         <v>-0.26553971480973587</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
         <v>-0.27276418499592026</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
         <v>-0.30663562823823615</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
         <v>-0.32011411739156526</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
         <v>-0.32758793962708621</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
         <v>-0.32892231005326572</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
         <v>-0.33154387619358827</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
         <v>-0.35676212939946694</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
         <v>-0.37944642664451977</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
         <v>-0.37909598592653315</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
         <v>-0.40075591799593302</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
         <v>-0.39230490529679563</v>
       </c>
     </row>
@@ -37813,99 +37813,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
         <v>2.2748694471007601E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
         <v>-0.199283206156735</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
         <v>-0.24617337231126091</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
         <v>-0.32498134958582298</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
         <v>-0.30478608000441831</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
         <v>-0.34123041706511414</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
         <v>-0.65495348418314236</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
         <v>-0.20891658187660048</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
         <v>-0.31848172259410651</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
         <v>-0.10654745675706627</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
         <v>9.3780332309051778E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
         <v>0.30176839604397848</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
         <v>0.30478608000441831</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
         <v>0.24617337231126091</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
         <v>0.53459432006867869</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
         <v>0.45497388942015221</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
         <v>0.41028895385210157</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
         <v>0.34331958288388026</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
         <v>0.32985606982961035</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
         <v>0.48062420308389031</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
         <v>0.42085084771364073</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
         <v>-4.7354425225362776E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
         <v>-6.8942472019278167E-2</v>
       </c>
     </row>
@@ -37914,99 +37914,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
         <v>-0.20392454885684896</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
         <v>-0.23218943981468196</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
         <v>-0.2277315543280439</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
         <v>-0.23000792138505061</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
         <v>-0.23237913706943253</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
         <v>-0.24186399980696038</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
         <v>-7.6637690919225121E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
         <v>6.876525484707699E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
         <v>0.15024022576244131</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
         <v>0.15801781320721414</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
         <v>7.113647053145894E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
         <v>0.16835631359111949</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
         <v>0.18021239201302933</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
         <v>0.17656071985908106</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
         <v>0.13753050969415398</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
         <v>5.868758818845362E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
         <v>2.9023679976835252E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
         <v>2.8739134094709417E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
         <v>3.0209287819026234E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
         <v>5.868758818845362E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
         <v>8.9489679928575358E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
         <v>1.1974639206128922E-2</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
         <v>-8.8304072086384369E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
         <v>-0.14872264772443686</v>
       </c>
     </row>
@@ -38015,99 +38015,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
         <v>-0.13688057920164695</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
         <v>-0.15000254057737183</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
         <v>-0.15366782004713192</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
         <v>-0.1546721848840413</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
         <v>-0.15083733732493285</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
         <v>-0.15522002024962825</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
         <v>-0.11888027433236234</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
         <v>-0.10174085360900002</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
         <v>-8.6949298738153102E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
         <v>-6.4566310944173089E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
         <v>-6.5857637163056551E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
         <v>-6.9731615819706938E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
         <v>-8.3479674756102573E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
         <v>-8.4366646300386164E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
         <v>-9.4592906458008733E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
         <v>-9.4592906458008733E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
         <v>-9.9784298731903878E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
         <v>-7.5092576182950399E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
         <v>-6.8505508096726689E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
         <v>-7.6957825165782076E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
         <v>-6.3861951188418475E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
         <v>-7.9253516221574921E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
         <v>-9.2610264182551291E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
         <v>-0.10776704263045619</v>
       </c>
     </row>
@@ -38116,99 +38116,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
         <v>-0.2563887932415066</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
         <v>-0.31360236728037255</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
         <v>-0.35757852288400871</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
         <v>-0.35526229966561951</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
         <v>-0.35384231332152483</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
         <v>-0.36148131976512027</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
         <v>-0.27186543104238053</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
         <v>8.2370064376379951E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
         <v>0.11389121257261056</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
         <v>0.16698630710198378</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
         <v>0.12891637275056922</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
         <v>0.16703705392042559</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
         <v>0.17498959425484073</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
         <v>0.15373184019188357</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
         <v>7.094128626994993E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
         <v>4.5567959028214186E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
         <v>3.4723403634451762E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
         <v>4.187454497471068E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
         <v>3.6614869302223962E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
         <v>3.8701216354913054E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
         <v>8.867843794555455E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
         <v>1.3421964874144191E-3</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
         <v>-0.14098432397046298</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
         <v>-0.20931733940135833</v>
       </c>
     </row>
@@ -38217,99 +38217,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
         <v>9.3780332309051792E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
         <v>8.7081737144119487E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
         <v>6.4565172208530336E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
         <v>5.8546384968752085E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
         <v>5.3080287099017749E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
         <v>6.9340408365709788E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
         <v>0.22328650549774232</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
         <v>0.29194157904459767</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
         <v>0.38572743824734979</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
         <v>0.36786451780753049</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
         <v>0.35537926493823846</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
         <v>0.34393859497832929</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
         <v>0.3834945731923724</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
         <v>0.34819430312766747</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
         <v>0.31360700235031919</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
         <v>0.29139994346195458</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
         <v>0.29697105231199733</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
         <v>0.30087856615820774</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
         <v>0.24815752714971853</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
         <v>0.22886866813518589</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
         <v>0.23561147844972163</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
         <v>0.17025596044202854</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
         <v>7.4800979341743692E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
         <v>7.9587269286323981E-2</v>
       </c>
     </row>
@@ -38318,99 +38318,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
         <v>0.80885536616557141</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
         <v>0.76776843839650666</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
         <v>0.83462174459701899</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
         <v>0.84402299078146592</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
         <v>0.83566632750640191</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
         <v>0.81686383513750771</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
         <v>0.70666033819760132</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
         <v>0.68576868000994118</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
         <v>0.52229145469150129</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
         <v>0.36926005846689136</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
         <v>0.40442768308278576</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
         <v>0.48259730413494722</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
         <v>0.35167624615894416</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
         <v>0.48259730413494722</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
         <v>0.56825310270435336</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
         <v>0.55153977615422534</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
         <v>0.55153977615422534</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
         <v>0.53430415814940568</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
         <v>0.50488173953511783</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
         <v>0.6204822481735035</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
         <v>0.66156917594256825</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
         <v>0.76359010675897476</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
         <v>0.70335249231788832</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
         <v>0.69952235498348403</v>
       </c>
     </row>
@@ -38419,99 +38419,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
         <v>6.0300408520866794E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
         <v>6.6604542138957432E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
         <v>6.338870127049534E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
         <v>6.214578555930917E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
         <v>5.9573112864539521E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
         <v>6.5603153716626186E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
         <v>6.7540799606990679E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
         <v>0.1252603940638006</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
         <v>0.14437361536049118</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
         <v>0.13616711511894744</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
         <v>0.13704638300197</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
         <v>0.13677229023596607</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
         <v>0.14266121402040713</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
         <v>0.13836257103674141</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
         <v>9.9927166631654241E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
         <v>0.12937178555385967</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
         <v>0.13231353365631779</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
         <v>0.12157778135620309</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
         <v>9.8266327297056116E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
         <v>8.5636349742775578E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
         <v>9.2643354909331732E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
         <v>9.2917447675335649E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
         <v>6.3502680440516782E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
         <v>6.1700724038273071E-2</v>
       </c>
     </row>
@@ -39054,99 +39054,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>5.9703374773135448E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>6.6604542138957432E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>6.1524327703716082E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>6.338870127049534E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>6.1396779584882565E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>6.4959985542933765E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>6.4892140798873399E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>0.1252603940638006</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>0.14148614305328133</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>0.13616711511894744</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>0.13568948812076237</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>0.13270974696163046</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>0.14554325874809215</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>0.13976017276438529</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>9.7967810423190416E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>0.13065269432171966</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>0.12842195913701435</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>0.11914622572907904</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>9.6339536565741277E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>8.8257870653268691E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>9.2643354909331732E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>9.1077498216418112E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>6.3502680440516782E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>6.2959922488033754E-2</v>
       </c>
     </row>
@@ -39155,99 +39155,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>6.2400412746893806E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-3.7814650124617655E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-4.1371473651190593E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-5.8687588188453634E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-7.3195684152106422E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-5.6160371472204436E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-7.0325265165749315E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>0.17915158499633216</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>0.228572711891872</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>0.29343794094226811</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>0.16511149212828102</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>0.15593863145448761</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>0.10608070166971947</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>0.14352094931785575</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>6.1152404491955935E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>5.304035083485973E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>6.1152404491955935E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>0.11456715780329704</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>0.2174342382165515</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>0.21403341572184573</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>0.17821557880512867</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>0.1355024962798799</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>6.364842100183167E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>1.2604883374872549E-2</v>
       </c>
     </row>
@@ -39256,99 +39256,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-0.1786236775044934</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-0.41061325246775954</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-0.73076255268027646</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-0.65486131510290291</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-0.68205119377360734</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-0.66278785600351509</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-3.7236308416829386E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>0.77104044074501521</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>1.023076790660411</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>1.0426166356712228</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>0.85316309123856726</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>1.0891620211922595</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>0.98676217304597869</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>0.86961527206134936</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>0.60066589592197295</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>0.37867666616471174</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>0.4841641784990216</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>0.41549821372046242</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>7.7560281021687924E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>0.34443585285567174</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>0.48886480159124512</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>0.31650862154304971</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-0.29323592878253135</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-0.58854566187045543</v>
       </c>
     </row>
@@ -39357,99 +39357,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
         <v>-2.6310376345648248</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
         <v>-2.7376524837676577</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
         <v>-2.8437510383012281</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
         <v>-2.7322313897403956</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
         <v>-2.8810533281554878</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
         <v>-2.9885716930295314</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
         <v>-2.6057391957709326</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
         <v>-1.812065215446212</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
         <v>-1.3692134628857764</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
         <v>-1.4056122370688255</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
         <v>-1.7761827359324254</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
         <v>-1.949012376468253</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
         <v>-1.8070313424208961</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
         <v>-1.9226813483358338</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
         <v>-1.8457534426156299</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
         <v>-2.1813449776366531</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
         <v>-2.4523996789997877</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
         <v>-2.1595315278602869</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
         <v>-1.5666961738789167</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
         <v>-1.3534664754732513</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
         <v>-1.4087100050844048</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
         <v>-1.838138096243999</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
         <v>-2.2587891780261202</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
         <v>-2.3021579302442219</v>
       </c>
     </row>
@@ -39458,99 +39458,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
         <v>-0.37353495854805241</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
         <v>-0.48974583454077991</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
         <v>-0.57119207082705481</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
         <v>-0.56141194759994417</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
         <v>-0.57275360310701362</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
         <v>-0.60809354417976658</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
         <v>-0.56445282625039028</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
         <v>-0.21968293601736943</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
         <v>7.4706991709610482E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
         <v>0.24902330569870165</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
         <v>0.40682025188401744</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
         <v>0.43579078497272783</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
         <v>0.37427463173329606</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
         <v>0.31542952055168866</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
         <v>0.20341012594200872</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
         <v>0.13018248060288559</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
         <v>0.11095097778655022</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
         <v>0.10067773910261038</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
         <v>0.10375971070779233</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
         <v>2.4409215113041047E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
         <v>0.21561473349852925</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
         <v>0.10375971070779233</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
         <v>5.6954835263762445E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
         <v>-8.9500455414483857E-2</v>
       </c>
     </row>
@@ -39559,99 +39559,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
         <v>6.3402812977259901E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
         <v>7.1772954741477255E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
         <v>5.5679638692402368E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
         <v>6.2907478500875066E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
         <v>6.5050558276254375E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
         <v>6.6127152597376546E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
         <v>6.5854213192021643E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
         <v>0.12080095903671172</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
         <v>0.13572164652944702</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
         <v>0.13823875437883121</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
         <v>0.12321697821744593</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
         <v>0.14141799300787272</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
         <v>0.15187308856299561</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
         <v>0.13710656128995158</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
         <v>0.12054823736508681</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
         <v>0.10402024004081703</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
         <v>0.13198136578939818</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
         <v>0.12660344861721987</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
         <v>0.10027490486733573</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
         <v>9.0320198222030121E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
         <v>0.10955484464940279</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
         <v>8.4661759994348162E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
         <v>6.4444026264354581E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
         <v>7.2025676413102174E-2</v>
       </c>
     </row>
@@ -39660,99 +39660,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
         <v>-0.64491640492341873</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
         <v>-0.64982140293269552</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
         <v>-0.68987888667512187</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
         <v>-0.73656720105971896</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
         <v>-0.66994097810037678</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
         <v>-0.74583219729946382</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
         <v>-0.61421475071720544</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
         <v>-0.28326363503572982</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
         <v>-4.8959146796298973E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
         <v>-4.0057483742426431E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
         <v>8.5428715328235955E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
         <v>2.6977489051021885E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
         <v>9.0833296468087171E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
         <v>-7.4119969917959133E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
         <v>-0.12970994735642846</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
         <v>-0.18807034033717451</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
         <v>-0.24524990046383538</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
         <v>-0.2113236642330048</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
         <v>-0.26146364388338894</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
         <v>-0.18166659293617432</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
         <v>-0.34743735899043338</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
         <v>-0.43145815822341399</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
         <v>-0.47251480822698949</v>
       </c>
     </row>
@@ -39761,99 +39761,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
         <v>-0.40368075014220534</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
         <v>-0.41450397693232865</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
         <v>-0.41041999471886997</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
         <v>-0.41656618577278792</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
         <v>-0.40297986870623242</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
         <v>-0.39761543002320732</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
         <v>-0.33088343022507516</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
         <v>-0.28179477272865072</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
         <v>-0.27839819346201178</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
         <v>-0.26351794143673646</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
         <v>-0.26946195515335458</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
         <v>-0.25691348175160528</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
         <v>-0.27358637283427334</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
         <v>-0.27554749300608272</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
         <v>-0.31276834080300087</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
         <v>-0.32331525856548088</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
         <v>-0.33089690871422855</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
         <v>-0.33224475762956135</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
         <v>-0.33492697697107393</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
         <v>-0.34626912559360029</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
         <v>-0.37944642664451977</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
         <v>-0.39070096508754948</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
         <v>-0.40075591799593302</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
         <v>-0.40431423913241182</v>
       </c>
     </row>
@@ -39862,99 +39862,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
         <v>2.3677212612681384E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
         <v>-0.1973101051056782</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
         <v>-0.2486107324331546</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
         <v>-0.3217315360899648</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
         <v>-0.29875071208353876</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
         <v>-0.34819430312766747</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
         <v>-0.66156917594256803</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
         <v>-0.20682741605783447</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
         <v>-0.32498134958582298</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
         <v>-0.10236912511953426</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
         <v>9.0994777884030445E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
         <v>0.29573302812309893</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
         <v>0.29875071208353876</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
         <v>0.2486107324331546</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
         <v>0.55095945231567922</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
         <v>0.45961648012852108</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
         <v>0.39810215324263315</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
         <v>0.33322194809317779</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
         <v>0.33658782635674528</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
         <v>0.48538285855996838</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
         <v>0.42514524411888199</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
         <v>-4.5497388942015222E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
         <v>-7.0335249231788841E-2</v>
       </c>
     </row>
@@ -39963,99 +39963,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
         <v>-0.20800303983398594</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
         <v>-0.22763670570066863</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
         <v>-0.23470292844012686</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
         <v>-0.23460807981275156</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
         <v>-0.23712156843819646</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
         <v>-0.24186399980696038</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
         <v>-7.6637690919225121E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
         <v>6.876525484707699E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
         <v>0.15175780380044573</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
         <v>0.16285509320335337</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
         <v>7.2559199942088107E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
         <v>0.1649891873192971</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
         <v>0.17841026809289906</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
         <v>0.17309874495988337</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
         <v>0.13615520459721245</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
         <v>5.9280392109549114E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
         <v>2.8739134094709417E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
         <v>2.8170042330457744E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
         <v>3.0209287819026234E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
         <v>5.8094784267358132E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
         <v>8.5980280715690027E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
         <v>1.1974639206128922E-2</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
         <v>-9.1908319926644971E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
         <v>-0.15327538183845024</v>
       </c>
     </row>
@@ -40064,99 +40064,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
         <v>-0.13549794708849902</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
         <v>-0.15000254057737183</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
         <v>-0.15366782004713192</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
         <v>-0.15782876008575644</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
         <v>-0.15391565033156412</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
         <v>-0.15832442065462082</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
         <v>-0.12373253042756079</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
         <v>-0.10275826214509001</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
         <v>-8.4366646300386192E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
         <v>-6.391412598514104E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
         <v>-6.5192408504843868E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
         <v>-6.9731615819706938E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
         <v>-8.5149268251224625E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
         <v>-8.6088414592230766E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
         <v>-9.8453841415478485E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
         <v>-9.6523373936743609E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
         <v>-9.5871188977711574E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
         <v>-7.3605594476357339E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
         <v>-6.7148963381940013E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
         <v>-7.618824691412425E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
         <v>-6.3235853627747696E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
         <v>-8.0870934919974394E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
         <v>-9.4462469466202306E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
         <v>-0.10671050299682425</v>
       </c>
     </row>
@@ -40165,99 +40165,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
         <v>-0.2538502903381254</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
         <v>-0.31052783426781982</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
         <v>-0.34355583571208675</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
         <v>-0.35526229966561951</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
         <v>-0.3503038901883096</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
         <v>-0.36871094616042266</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
         <v>-0.27741370514528629</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
         <v>8.1554519184534619E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
         <v>0.11734246143844725</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
         <v>0.16865617017300363</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
         <v>0.1302185583339083</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
         <v>0.16874151365430745</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
         <v>0.17155842574003993</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
         <v>0.15525393761952599</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
         <v>6.8854777850245505E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
         <v>4.7427875723243335E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
         <v>3.5424886536157864E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
         <v>4.187454497471068E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
         <v>3.6614869302223962E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
         <v>3.7562945285650906E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
         <v>8.6939645044661326E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
         <v>1.3421964874144191E-3</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
         <v>-0.14673878617333902</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
         <v>-0.20726520862291364</v>
       </c>
     </row>
@@ -40266,99 +40266,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
         <v>9.4708850450725579E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
         <v>8.6219541726851007E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
         <v>6.6521692578485808E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
         <v>5.9729140220646071E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
         <v>5.5246829429589903E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
         <v>6.6621176665093707E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
         <v>0.21882077538778746</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
         <v>0.30385756186274449</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
         <v>0.38954652179435334</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
         <v>0.36786451780753049</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
         <v>0.35893305758762079</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
         <v>0.35095774997788703</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
         <v>0.37969759722017077</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
         <v>0.34123041706511414</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
         <v>0.32640728816053627</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
         <v>0.30329381870529964</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
         <v>0.28815012996609646</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
         <v>0.30385756186274449</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
         <v>0.24815752714971853</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
         <v>0.22886866813518589</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
         <v>0.23561147844972163</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
         <v>0.16857025786339458</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
         <v>7.4800979341743692E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
         <v>7.799552390059751E-2</v>
       </c>
     </row>
@@ -40367,99 +40367,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
         <v>0.80885536616557141</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
         <v>0.77560281021687916</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
         <v>0.83462174459701899</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
         <v>0.83566632750640191</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
         <v>0.83566632750640191</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
         <v>0.80084689719363511</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
         <v>0.70666033819760132</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
         <v>0.67218910218796213</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
         <v>0.51184562559767133</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
         <v>0.37291609864973185</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
         <v>0.40843191756875391</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
         <v>0.49722146486630919</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
         <v>0.34471236009639078</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
         <v>0.49722146486630919</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
         <v>0.56268199385431072</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
         <v>0.5459686673041827</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
         <v>0.56825310270435336</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
         <v>0.5504951932448422</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
         <v>0.49478410474441553</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
         <v>0.61421475071720544</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
         <v>0.64833779242371681</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
         <v>0.76359010675897476</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
         <v>0.70335249231788832</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
         <v>0.70666033819760132</v>
       </c>
     </row>
@@ -40468,99 +40468,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
         <v>5.8509307277672735E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
         <v>6.5945091226690525E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
         <v>6.338870127049534E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
         <v>6.0902869848122987E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
         <v>6.2004668491663584E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
         <v>6.3673649195548937E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
         <v>6.6878634904961362E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
         <v>0.12153978829952929</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
         <v>0.14148614305328133</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
         <v>0.14033549619401725</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
         <v>0.13568948812076237</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
         <v>0.13270974696163046</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
         <v>0.14410223638424963</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
         <v>0.1411577744920291</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
         <v>9.6008454214726605E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
         <v>0.13065269432171966</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
         <v>0.12971915064344883</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
         <v>0.12036200354264107</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
         <v>9.8266327297056116E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
         <v>8.7384030349770977E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
         <v>8.989157209024265E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
         <v>9.0157523486959351E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
         <v>6.4772734049327124E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
         <v>6.3589521712914085E-2</v>
       </c>
     </row>

--- a/data/CS1/case18_1/case18_1_2050.xlsx
+++ b/data/CS1/case18_1/case18_1_2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202411E-8F98-4F62-AC71-BAACD6CDBA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4C742-AC76-4CCB-94B4-6B8BA1CB8C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,16 +15033,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
